--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,66 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>прайс лист на</t>
+  </si>
+  <si>
+    <t>курс $</t>
+  </si>
+  <si>
+    <t>№ поз</t>
+  </si>
+  <si>
+    <t>сапоги-скороходы</t>
+  </si>
+  <si>
+    <t>скатерть-самобранка</t>
+  </si>
+  <si>
+    <t>наим.товара</t>
+  </si>
+  <si>
+    <t>палочка волшебная</t>
+  </si>
+  <si>
+    <t>зелье притворное</t>
+  </si>
+  <si>
+    <t>вода живая</t>
+  </si>
+  <si>
+    <t>вода мертвая</t>
+  </si>
+  <si>
+    <t>ковер-самолет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOO            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛЕНЬКИЙ ЦВЕТОЧЕК </t>
+  </si>
+  <si>
+    <t>цена($)</t>
+  </si>
+  <si>
+    <t>цена(руб)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$$-C09]#,##0.00;\-[$$-C09]#,##0.00"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,25 +95,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +188,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +433,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>300</v>
+      </c>
+      <c r="D5" s="6">
+        <f>C5*$C$3</f>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" ref="D6:D11" si="0">C6*$C$3</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>400</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>700</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>200</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
